--- a/biology/Botanique/Brunoniaceae/Brunoniaceae.xlsx
+++ b/biology/Botanique/Brunoniaceae/Brunoniaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Brunoniacées regroupe des plantes dicotylédones ; elle ne comprend qu'une espèce : Brunonia australis.
 Ce sont des plantes herbacées pérennes, à rosette, à inflorescence terminale dense, endémiques d'Australie.
@@ -513,11 +525,13 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre Brunonia (en), nommé en hommage à Robert Brown (1773-1858), botaniste britannique.
 Or le nom « Brunonia » a été choisi plutôt que « Brownea », car ce dernier avait déjà été attribué en l'honneur de Patrick Brown ; James Edward Smith dut donc faire un compromis pour justifier son choix : 
-« Je suis obligé d'adopter un stratagème, [...], qui consiste à conserver autant de ressemblance que possible avec le nom (Brown), tout en évitant toute ambiguïté avec le Brownea précédemment établi, en appelant mon genre Brunonia[1]. »
+« Je suis obligé d'adopter un stratagème, [...], qui consiste à conserver autant de ressemblance que possible avec le nom (Brown), tout en évitant toute ambiguïté avec le Brownea précédemment établi, en appelant mon genre Brunonia. »
 </t>
         </is>
       </c>
@@ -546,10 +560,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En classification phylogénétique APG II (2003)[2] cette famille n'existe pas. L'unique espèce est placée dans les Goodéniacées, une famille dans l'ordre des Asterales.
-En classification phylogénétique APG II (2003)[2] et en classification phylogénétique APG III (2009)[3] cette famille est invalide ; son espèce est incorporée dans la famille des Goodeniaceae.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification phylogénétique APG II (2003) cette famille n'existe pas. L'unique espèce est placée dans les Goodéniacées, une famille dans l'ordre des Asterales.
+En classification phylogénétique APG II (2003) et en classification phylogénétique APG III (2009) cette famille est invalide ; son espèce est incorporée dans la famille des Goodeniaceae.
 </t>
         </is>
       </c>
